--- a/s2.xlsx
+++ b/s2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad\Documents\MEGA\XLS FORMS\الكراس الابتدائي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED635688-0323-42A8-AA96-ED48EB483C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E9438-B638-412E-AF88-D65B72075D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17165" uniqueCount="3953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17168" uniqueCount="3953">
   <si>
     <t>type</t>
   </si>
@@ -12504,9 +12504,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R3140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3060" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3067" sqref="M3067"/>
+    <sheetView tabSelected="1" topLeftCell="A2994" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3009" sqref="N3009"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31940,7 +31940,7 @@
       <c r="Q938" s="43"/>
       <c r="R938" s="43"/>
     </row>
-    <row r="939" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A939" s="41" t="s">
         <v>7</v>
       </c>
@@ -31957,7 +31957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="940" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A940" s="41" t="s">
         <v>7</v>
       </c>
@@ -31977,7 +31977,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="941" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A941" s="41" t="s">
         <v>7</v>
       </c>
@@ -31997,7 +31997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="942" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A942" s="41" t="s">
         <v>7</v>
       </c>
@@ -32017,7 +32017,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="943" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A943" s="41" t="s">
         <v>7</v>
       </c>
@@ -32037,7 +32037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="944" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A944" s="38" t="s">
         <v>129</v>
       </c>
@@ -32052,7 +32052,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="945" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A945" s="38" t="s">
         <v>7</v>
       </c>
@@ -32072,7 +32072,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="946" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A946" s="38" t="s">
         <v>18</v>
       </c>
@@ -32098,7 +32098,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="947" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="38" t="s">
         <v>18</v>
       </c>
@@ -32124,7 +32124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="948" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="38" t="s">
         <v>18</v>
       </c>
@@ -32150,7 +32150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="949" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="38" t="s">
         <v>18</v>
       </c>
@@ -32182,13 +32182,13 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="950" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H950" s="38"/>
     </row>
-    <row r="951" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A951" s="38" t="s">
         <v>129</v>
       </c>
@@ -32203,7 +32203,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="952" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A952" s="38" t="s">
         <v>7</v>
       </c>
@@ -32223,7 +32223,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="953" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A953" s="38" t="s">
         <v>18</v>
       </c>
@@ -32249,7 +32249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="954" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="38" t="s">
         <v>18</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="955" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="38" t="s">
         <v>18</v>
       </c>
@@ -32301,7 +32301,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="956" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="38" t="s">
         <v>18</v>
       </c>
@@ -32333,13 +32333,13 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="957" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H957" s="38"/>
     </row>
-    <row r="958" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A958" s="38" t="s">
         <v>129</v>
       </c>
@@ -32354,7 +32354,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="959" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A959" s="38" t="s">
         <v>7</v>
       </c>
@@ -32374,7 +32374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="960" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A960" s="38" t="s">
         <v>18</v>
       </c>
@@ -32400,7 +32400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="38" t="s">
         <v>18</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="962" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="38" t="s">
         <v>18</v>
       </c>
@@ -32452,7 +32452,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="963" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="38" t="s">
         <v>18</v>
       </c>
@@ -32484,13 +32484,13 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="964" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H964" s="38"/>
     </row>
-    <row r="965" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A965" s="38" t="s">
         <v>129</v>
       </c>
@@ -32505,7 +32505,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="966" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A966" s="38" t="s">
         <v>7</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="967" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A967" s="38" t="s">
         <v>18</v>
       </c>
@@ -32554,7 +32554,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="968" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="38" t="s">
         <v>18</v>
       </c>
@@ -32580,7 +32580,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="969" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="38" t="s">
         <v>18</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="970" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="38" t="s">
         <v>18</v>
       </c>
@@ -32638,13 +32638,13 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="971" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H971" s="38"/>
     </row>
-    <row r="972" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A972" s="38" t="s">
         <v>129</v>
       </c>
@@ -32659,7 +32659,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="973" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A973" s="38" t="s">
         <v>7</v>
       </c>
@@ -32682,7 +32682,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="974" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A974" s="38" t="s">
         <v>18</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="975" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="38" t="s">
         <v>18</v>
       </c>
@@ -32734,7 +32734,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="976" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="38" t="s">
         <v>18</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="977" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="38" t="s">
         <v>18</v>
       </c>
@@ -32792,13 +32792,13 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="978" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H978" s="38"/>
     </row>
-    <row r="979" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A979" s="38" t="s">
         <v>129</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="980" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A980" s="38" t="s">
         <v>7</v>
       </c>
@@ -32836,7 +32836,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="981" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A981" s="38" t="s">
         <v>18</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="982" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="38" t="s">
         <v>18</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="983" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="38" t="s">
         <v>18</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="984" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="38" t="s">
         <v>18</v>
       </c>
@@ -32946,13 +32946,13 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="985" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H985" s="38"/>
     </row>
-    <row r="986" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A986" s="38" t="s">
         <v>129</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="987" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A987" s="38" t="s">
         <v>7</v>
       </c>
@@ -32990,7 +32990,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="988" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A988" s="38" t="s">
         <v>18</v>
       </c>
@@ -33016,7 +33016,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="989" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="38" t="s">
         <v>18</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="990" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="38" t="s">
         <v>18</v>
       </c>
@@ -33068,7 +33068,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="991" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="38" t="s">
         <v>18</v>
       </c>
@@ -33100,13 +33100,13 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="992" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H992" s="38"/>
     </row>
-    <row r="993" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A993" s="38" t="s">
         <v>129</v>
       </c>
@@ -33121,7 +33121,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="994" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A994" s="38" t="s">
         <v>7</v>
       </c>
@@ -33144,7 +33144,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="995" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A995" s="38" t="s">
         <v>18</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="996" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="38" t="s">
         <v>18</v>
       </c>
@@ -33196,7 +33196,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="997" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="38" t="s">
         <v>18</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="998" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="38" t="s">
         <v>18</v>
       </c>
@@ -33254,13 +33254,13 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="999" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H999" s="38"/>
     </row>
-    <row r="1000" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1000" s="38" t="s">
         <v>129</v>
       </c>
@@ -33275,7 +33275,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1001" s="38" t="s">
         <v>7</v>
       </c>
@@ -33298,7 +33298,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1002" s="38" t="s">
         <v>18</v>
       </c>
@@ -33324,7 +33324,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="38" t="s">
         <v>18</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="1004" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="38" t="s">
         <v>18</v>
       </c>
@@ -33376,7 +33376,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="38" t="s">
         <v>18</v>
       </c>
@@ -33408,13 +33408,13 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1006" s="38"/>
     </row>
-    <row r="1007" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1007" s="38" t="s">
         <v>129</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1008" s="38" t="s">
         <v>7</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1009" s="38" t="s">
         <v>18</v>
       </c>
@@ -33478,7 +33478,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="38" t="s">
         <v>18</v>
       </c>
@@ -33504,7 +33504,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="38" t="s">
         <v>18</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="38" t="s">
         <v>18</v>
       </c>
@@ -33562,13 +33562,13 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1013" s="38"/>
     </row>
-    <row r="1014" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1014" s="38" t="s">
         <v>129</v>
       </c>
@@ -33583,7 +33583,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1015" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1015" s="38" t="s">
         <v>7</v>
       </c>
@@ -33606,7 +33606,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="1016" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1016" s="38" t="s">
         <v>18</v>
       </c>
@@ -33632,7 +33632,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="1017" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="38" t="s">
         <v>18</v>
       </c>
@@ -33658,7 +33658,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="38" t="s">
         <v>18</v>
       </c>
@@ -33684,7 +33684,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="38" t="s">
         <v>18</v>
       </c>
@@ -33716,13 +33716,13 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1020" s="38"/>
     </row>
-    <row r="1021" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1021" s="38" t="s">
         <v>129</v>
       </c>
@@ -33737,7 +33737,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1022" s="38" t="s">
         <v>7</v>
       </c>
@@ -33760,7 +33760,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1023" s="38" t="s">
         <v>18</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="38" t="s">
         <v>18</v>
       </c>
@@ -33812,7 +33812,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="1025" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="38" t="s">
         <v>18</v>
       </c>
@@ -33838,7 +33838,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="1026" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="38" t="s">
         <v>18</v>
       </c>
@@ -33870,13 +33870,13 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="1027" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1027" s="38"/>
     </row>
-    <row r="1028" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1028" s="38" t="s">
         <v>129</v>
       </c>
@@ -33891,7 +33891,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1029" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1029" s="38" t="s">
         <v>7</v>
       </c>
@@ -33914,7 +33914,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="1030" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1030" s="38" t="s">
         <v>18</v>
       </c>
@@ -33940,7 +33940,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="1031" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031" s="38" t="s">
         <v>18</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="1032" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1032" s="38" t="s">
         <v>18</v>
       </c>
@@ -33992,7 +33992,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1033" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="38" t="s">
         <v>18</v>
       </c>
@@ -34024,13 +34024,13 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="1034" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1034" s="38"/>
     </row>
-    <row r="1035" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1035" s="38" t="s">
         <v>129</v>
       </c>
@@ -34045,7 +34045,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1036" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1036" s="38" t="s">
         <v>7</v>
       </c>
@@ -34068,7 +34068,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="1037" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1037" s="38" t="s">
         <v>18</v>
       </c>
@@ -34094,7 +34094,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="1038" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1038" s="38" t="s">
         <v>18</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="1039" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="38" t="s">
         <v>18</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="1040" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1040" s="38" t="s">
         <v>18</v>
       </c>
@@ -34178,13 +34178,13 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="1041" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1041" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1041" s="38"/>
     </row>
-    <row r="1042" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1042" s="38" t="s">
         <v>129</v>
       </c>
@@ -34199,7 +34199,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="1043" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1043" s="38" t="s">
         <v>7</v>
       </c>
@@ -34222,7 +34222,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="1044" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1044" s="38" t="s">
         <v>18</v>
       </c>
@@ -34248,7 +34248,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="1045" spans="1:18" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1045" s="38" t="s">
         <v>18</v>
       </c>
@@ -34274,7 +34274,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="1046" spans="1:18" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="38" t="s">
         <v>18</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="1047" spans="1:18" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1047" s="38" t="s">
         <v>18</v>
       </c>
@@ -34332,13 +34332,13 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="1048" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1048" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H1048" s="38"/>
     </row>
-    <row r="1049" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1049" s="38" t="s">
         <v>7</v>
       </c>
@@ -34355,7 +34355,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1050" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1050" s="47" t="s">
         <v>18</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="1051" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1051" s="47" t="s">
         <v>18</v>
       </c>
@@ -34407,7 +34407,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="1052" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1052" s="47" t="s">
         <v>18</v>
       </c>
@@ -34433,7 +34433,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="1053" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1053" s="47" t="s">
         <v>18</v>
       </c>
@@ -73154,7 +73154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2899" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2899" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2899" s="41" t="s">
         <v>7</v>
       </c>
@@ -73171,7 +73171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2900" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2900" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2900" s="41" t="s">
         <v>7</v>
       </c>
@@ -73191,7 +73191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2901" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2901" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2901" s="41" t="s">
         <v>7</v>
       </c>
@@ -73211,7 +73211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2902" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2902" s="41" t="s">
         <v>7</v>
       </c>
@@ -73231,7 +73231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2903" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2903" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2903" s="41" t="s">
         <v>7</v>
       </c>
@@ -73251,7 +73251,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2904" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2904" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2904" s="38" t="s">
         <v>129</v>
       </c>
@@ -73266,7 +73266,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2905" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2905" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2905" s="38" t="s">
         <v>7</v>
       </c>
@@ -73286,7 +73286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2906" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2906" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2906" s="38" t="s">
         <v>18</v>
       </c>
@@ -73312,7 +73312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2907" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2907" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2907" s="38" t="s">
         <v>18</v>
       </c>
@@ -73338,7 +73338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2908" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2908" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2908" s="38" t="s">
         <v>18</v>
       </c>
@@ -73364,7 +73364,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2909" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2909" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2909" s="38" t="s">
         <v>18</v>
       </c>
@@ -73396,13 +73396,13 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="2910" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2910" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2910" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2910" s="38"/>
     </row>
-    <row r="2911" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2911" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2911" s="38" t="s">
         <v>129</v>
       </c>
@@ -73417,7 +73417,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2912" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2912" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2912" s="38" t="s">
         <v>7</v>
       </c>
@@ -73437,7 +73437,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2913" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2913" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2913" s="38" t="s">
         <v>18</v>
       </c>
@@ -73463,7 +73463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2914" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2914" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2914" s="38" t="s">
         <v>18</v>
       </c>
@@ -73489,7 +73489,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2915" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2915" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2915" s="38" t="s">
         <v>18</v>
       </c>
@@ -73515,7 +73515,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2916" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2916" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2916" s="38" t="s">
         <v>18</v>
       </c>
@@ -73547,13 +73547,13 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="2917" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2917" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2917" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2917" s="38"/>
     </row>
-    <row r="2918" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2918" s="38" t="s">
         <v>129</v>
       </c>
@@ -73568,7 +73568,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2919" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2919" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2919" s="38" t="s">
         <v>7</v>
       </c>
@@ -73588,7 +73588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2920" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2920" s="38" t="s">
         <v>18</v>
       </c>
@@ -73614,7 +73614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2921" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2921" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2921" s="38" t="s">
         <v>18</v>
       </c>
@@ -73640,7 +73640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2922" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2922" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2922" s="38" t="s">
         <v>18</v>
       </c>
@@ -73666,7 +73666,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2923" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2923" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2923" s="38" t="s">
         <v>18</v>
       </c>
@@ -73698,13 +73698,13 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="2924" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2924" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2924" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2924" s="38"/>
     </row>
-    <row r="2925" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2925" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2925" s="38" t="s">
         <v>129</v>
       </c>
@@ -73719,7 +73719,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2926" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2926" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2926" s="38" t="s">
         <v>7</v>
       </c>
@@ -73742,7 +73742,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2927" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2927" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2927" s="38" t="s">
         <v>18</v>
       </c>
@@ -73768,7 +73768,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2928" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2928" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2928" s="38" t="s">
         <v>18</v>
       </c>
@@ -73794,7 +73794,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2929" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2929" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2929" s="38" t="s">
         <v>18</v>
       </c>
@@ -73820,7 +73820,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2930" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2930" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2930" s="38" t="s">
         <v>18</v>
       </c>
@@ -73852,13 +73852,13 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="2931" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2931" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2931" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2931" s="38"/>
     </row>
-    <row r="2932" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2932" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2932" s="38" t="s">
         <v>129</v>
       </c>
@@ -73873,7 +73873,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2933" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2933" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2933" s="38" t="s">
         <v>7</v>
       </c>
@@ -73896,7 +73896,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2934" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2934" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2934" s="38" t="s">
         <v>18</v>
       </c>
@@ -73922,7 +73922,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2935" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2935" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2935" s="38" t="s">
         <v>18</v>
       </c>
@@ -73948,7 +73948,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2936" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2936" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2936" s="38" t="s">
         <v>18</v>
       </c>
@@ -73974,7 +73974,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2937" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2937" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2937" s="38" t="s">
         <v>18</v>
       </c>
@@ -74006,13 +74006,13 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="2938" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2938" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2938" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2938" s="38"/>
     </row>
-    <row r="2939" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2939" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2939" s="38" t="s">
         <v>129</v>
       </c>
@@ -74027,7 +74027,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2940" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2940" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2940" s="38" t="s">
         <v>7</v>
       </c>
@@ -74050,7 +74050,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2941" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2941" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2941" s="38" t="s">
         <v>18</v>
       </c>
@@ -74076,7 +74076,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2942" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2942" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2942" s="38" t="s">
         <v>18</v>
       </c>
@@ -74102,7 +74102,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2943" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2943" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2943" s="38" t="s">
         <v>18</v>
       </c>
@@ -74128,7 +74128,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2944" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2944" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2944" s="38" t="s">
         <v>18</v>
       </c>
@@ -74160,13 +74160,13 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="2945" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2945" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2945" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2945" s="38"/>
     </row>
-    <row r="2946" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2946" s="38" t="s">
         <v>129</v>
       </c>
@@ -74181,7 +74181,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2947" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2947" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2947" s="38" t="s">
         <v>7</v>
       </c>
@@ -74204,7 +74204,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2948" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2948" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2948" s="38" t="s">
         <v>18</v>
       </c>
@@ -74230,7 +74230,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2949" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2949" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2949" s="38" t="s">
         <v>18</v>
       </c>
@@ -74256,7 +74256,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2950" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2950" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2950" s="38" t="s">
         <v>18</v>
       </c>
@@ -74282,7 +74282,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2951" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2951" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2951" s="38" t="s">
         <v>18</v>
       </c>
@@ -74314,13 +74314,13 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="2952" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2952" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2952" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2952" s="38"/>
     </row>
-    <row r="2953" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2953" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2953" s="38" t="s">
         <v>129</v>
       </c>
@@ -74335,7 +74335,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2954" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2954" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2954" s="38" t="s">
         <v>7</v>
       </c>
@@ -74358,7 +74358,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2955" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2955" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2955" s="38" t="s">
         <v>18</v>
       </c>
@@ -74384,7 +74384,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2956" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2956" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2956" s="38" t="s">
         <v>18</v>
       </c>
@@ -74410,7 +74410,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2957" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2957" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2957" s="38" t="s">
         <v>18</v>
       </c>
@@ -74436,7 +74436,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2958" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2958" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2958" s="38" t="s">
         <v>18</v>
       </c>
@@ -74468,13 +74468,13 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="2959" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2959" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2959" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2959" s="38"/>
     </row>
-    <row r="2960" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2960" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2960" s="38" t="s">
         <v>129</v>
       </c>
@@ -74489,7 +74489,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2961" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2961" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2961" s="38" t="s">
         <v>7</v>
       </c>
@@ -74512,7 +74512,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2962" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2962" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2962" s="38" t="s">
         <v>18</v>
       </c>
@@ -74538,7 +74538,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2963" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2963" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2963" s="38" t="s">
         <v>18</v>
       </c>
@@ -74564,7 +74564,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2964" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2964" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2964" s="38" t="s">
         <v>18</v>
       </c>
@@ -74590,7 +74590,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2965" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2965" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2965" s="38" t="s">
         <v>18</v>
       </c>
@@ -74622,13 +74622,13 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="2966" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2966" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2966" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2966" s="38"/>
     </row>
-    <row r="2967" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2967" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2967" s="38" t="s">
         <v>129</v>
       </c>
@@ -74643,7 +74643,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2968" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2968" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2968" s="38" t="s">
         <v>7</v>
       </c>
@@ -74666,7 +74666,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2969" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2969" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2969" s="38" t="s">
         <v>18</v>
       </c>
@@ -74692,7 +74692,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2970" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2970" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2970" s="38" t="s">
         <v>18</v>
       </c>
@@ -74718,7 +74718,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2971" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2971" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2971" s="38" t="s">
         <v>18</v>
       </c>
@@ -74744,7 +74744,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2972" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2972" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2972" s="38" t="s">
         <v>18</v>
       </c>
@@ -74776,13 +74776,13 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="2973" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2973" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2973" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2973" s="38"/>
     </row>
-    <row r="2974" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2974" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2974" s="38" t="s">
         <v>129</v>
       </c>
@@ -74797,7 +74797,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2975" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2975" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2975" s="38" t="s">
         <v>7</v>
       </c>
@@ -74820,7 +74820,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2976" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2976" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2976" s="38" t="s">
         <v>18</v>
       </c>
@@ -74846,7 +74846,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2977" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2977" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2977" s="38" t="s">
         <v>18</v>
       </c>
@@ -74872,7 +74872,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2978" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2978" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2978" s="38" t="s">
         <v>18</v>
       </c>
@@ -74898,7 +74898,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2979" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2979" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2979" s="38" t="s">
         <v>18</v>
       </c>
@@ -74930,13 +74930,13 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="2980" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2980" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2980" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2980" s="38"/>
     </row>
-    <row r="2981" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2981" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2981" s="38" t="s">
         <v>129</v>
       </c>
@@ -74951,7 +74951,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2982" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2982" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2982" s="38" t="s">
         <v>7</v>
       </c>
@@ -74974,7 +74974,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2983" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2983" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2983" s="38" t="s">
         <v>18</v>
       </c>
@@ -75000,7 +75000,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2984" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2984" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2984" s="38" t="s">
         <v>18</v>
       </c>
@@ -75026,7 +75026,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2985" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2985" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2985" s="38" t="s">
         <v>18</v>
       </c>
@@ -75052,7 +75052,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2986" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2986" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2986" s="38" t="s">
         <v>18</v>
       </c>
@@ -75084,13 +75084,13 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="2987" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2987" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2987" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2987" s="38"/>
     </row>
-    <row r="2988" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2988" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2988" s="38" t="s">
         <v>129</v>
       </c>
@@ -75105,7 +75105,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2989" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2989" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2989" s="38" t="s">
         <v>7</v>
       </c>
@@ -75128,7 +75128,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2990" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2990" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2990" s="38" t="s">
         <v>18</v>
       </c>
@@ -75154,7 +75154,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2991" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2991" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2991" s="38" t="s">
         <v>18</v>
       </c>
@@ -75180,7 +75180,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="2992" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2992" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2992" s="38" t="s">
         <v>18</v>
       </c>
@@ -75206,7 +75206,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2993" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2993" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2993" s="38" t="s">
         <v>18</v>
       </c>
@@ -75238,13 +75238,13 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="2994" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2994" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2994" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H2994" s="38"/>
     </row>
-    <row r="2995" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2995" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2995" s="38" t="s">
         <v>129</v>
       </c>
@@ -75259,7 +75259,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2996" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2996" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2996" s="38" t="s">
         <v>7</v>
       </c>
@@ -75282,7 +75282,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="2997" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2997" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2997" s="38" t="s">
         <v>18</v>
       </c>
@@ -75308,7 +75308,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="2998" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2998" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2998" s="38" t="s">
         <v>18</v>
       </c>
@@ -75334,7 +75334,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2999" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2999" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2999" s="38" t="s">
         <v>18</v>
       </c>
@@ -75360,7 +75360,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3000" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3000" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3000" s="38" t="s">
         <v>18</v>
       </c>
@@ -75392,13 +75392,13 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="3001" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3001" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3001" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H3001" s="38"/>
     </row>
-    <row r="3002" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3002" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3002" s="38" t="s">
         <v>129</v>
       </c>
@@ -75413,7 +75413,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3003" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3003" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3003" s="38" t="s">
         <v>7</v>
       </c>
@@ -75436,7 +75436,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3004" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3004" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3004" s="38" t="s">
         <v>18</v>
       </c>
@@ -75462,7 +75462,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="3005" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3005" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3005" s="38" t="s">
         <v>18</v>
       </c>
@@ -75488,7 +75488,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="3006" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3006" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3006" s="38" t="s">
         <v>18</v>
       </c>
@@ -75514,7 +75514,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3007" spans="1:15" ht="16.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3007" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3007" s="38" t="s">
         <v>18</v>
       </c>
@@ -75546,13 +75546,13 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="3008" spans="1:15" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3008" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3008" s="38" t="s">
         <v>131</v>
       </c>
       <c r="H3008" s="38"/>
     </row>
-    <row r="3009" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3009" s="38" t="s">
         <v>7</v>
       </c>
@@ -75569,7 +75569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3010" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3010" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3010" s="47" t="s">
         <v>18</v>
       </c>
@@ -75588,11 +75588,14 @@
       <c r="M3010" s="38" t="s">
         <v>143</v>
       </c>
+      <c r="N3010" s="38" t="s">
+        <v>670</v>
+      </c>
       <c r="O3010" s="38" t="s">
         <v>2514</v>
       </c>
     </row>
-    <row r="3011" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3011" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3011" s="47" t="s">
         <v>18</v>
       </c>
@@ -75611,11 +75614,14 @@
       <c r="M3011" s="38" t="s">
         <v>130</v>
       </c>
+      <c r="N3011" s="38" t="s">
+        <v>671</v>
+      </c>
       <c r="O3011" s="38" t="s">
         <v>2516</v>
       </c>
     </row>
-    <row r="3012" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3012" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3012" s="47" t="s">
         <v>18</v>
       </c>
@@ -75634,11 +75640,14 @@
       <c r="M3012" s="38" t="s">
         <v>130</v>
       </c>
+      <c r="N3012" s="38" t="s">
+        <v>672</v>
+      </c>
       <c r="O3012" s="38" t="s">
         <v>2518</v>
       </c>
     </row>
-    <row r="3013" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3013" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3013" s="47" t="s">
         <v>18</v>
       </c>
@@ -75658,7 +75667,7 @@
         <v>130</v>
       </c>
       <c r="N3013" s="38" t="s">
-        <v>191</v>
+        <v>672</v>
       </c>
       <c r="O3013" s="38" t="s">
         <v>2520</v>
